--- a/template_examples/pbmc.xlsx
+++ b/template_examples/pbmc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlurye/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priti/Documents/GIT/schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF09735-C780-144A-B886-B92BC5D4E56E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1DF5C2-B9A2-9D42-8AC1-B141904FD611}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="460" windowWidth="51200" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,9 +803,6 @@
     <t>EDTA Tube</t>
   </si>
   <si>
-    <t>ml</t>
-  </si>
-  <si>
     <t>FFPE block #52</t>
   </si>
   <si>
@@ -837,6 +834,9 @@
   </si>
   <si>
     <t>Green-top Tube - Plasma (Olink)</t>
+  </si>
+  <si>
+    <t>mL</t>
   </si>
 </sst>
 </file>
@@ -1292,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1488,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2159,16 +2159,16 @@
         <v>100</v>
       </c>
       <c r="S23" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="T23">
         <v>10</v>
       </c>
       <c r="U23" t="s">
+        <v>62</v>
+      </c>
+      <c r="V23" t="s">
         <v>63</v>
-      </c>
-      <c r="V23" t="s">
-        <v>64</v>
       </c>
       <c r="W23">
         <v>123</v>
@@ -2180,13 +2180,13 @@
         <v>100</v>
       </c>
       <c r="Z23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA23" t="s">
         <v>65</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>66</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
@@ -2245,16 +2245,16 @@
         <v>100</v>
       </c>
       <c r="S24" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="T24">
         <v>10</v>
       </c>
       <c r="U24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W24">
         <v>123</v>
@@ -2266,13 +2266,13 @@
         <v>100</v>
       </c>
       <c r="Z24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA24" t="s">
         <v>65</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>66</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
@@ -2331,16 +2331,16 @@
         <v>100</v>
       </c>
       <c r="S25" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="T25">
         <v>10</v>
       </c>
       <c r="U25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W25">
         <v>123</v>
@@ -2352,13 +2352,13 @@
         <v>100</v>
       </c>
       <c r="Z25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA25" t="s">
         <v>65</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>66</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
@@ -2417,16 +2417,16 @@
         <v>100</v>
       </c>
       <c r="S26" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="T26">
         <v>10</v>
       </c>
       <c r="U26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W26">
         <v>123</v>
@@ -2438,13 +2438,13 @@
         <v>100</v>
       </c>
       <c r="Z26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA26" t="s">
         <v>65</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>66</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
@@ -2503,16 +2503,16 @@
         <v>100</v>
       </c>
       <c r="S27" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="T27">
         <v>10</v>
       </c>
       <c r="U27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W27">
         <v>123</v>
@@ -2524,13 +2524,13 @@
         <v>100</v>
       </c>
       <c r="Z27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA27" t="s">
         <v>65</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>66</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
@@ -2589,16 +2589,16 @@
         <v>100</v>
       </c>
       <c r="S28" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="T28">
         <v>10</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W28">
         <v>123</v>
@@ -2610,13 +2610,13 @@
         <v>100</v>
       </c>
       <c r="Z28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA28" t="s">
         <v>65</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>66</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">

--- a/template_examples/pbmc.xlsx
+++ b/template_examples/pbmc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priti/Documents/GIT/schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1DF5C2-B9A2-9D42-8AC1-B141904FD611}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBD56E2-0800-0143-A3BD-F9202E3997CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="51200" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40560" yWindow="1500" windowWidth="47740" windowHeight="23300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBMCs" sheetId="1" r:id="rId1"/>
@@ -82,296 +82,296 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assay and sample type used. Example: Green-top tube - Plasma (Olink).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The number corresponding to the batch sent for this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Box identifier for samples, if sample shipment container includes multiple boxes for each sample/assay type.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assay run number for samples received.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Courier utilized for shipment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Air bill number assigned to shipment. Example: 4567788343.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Courier account number to pay for shipping if avaialable. Example: 45465732.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Type of shippment made.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Date of shipment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Count of specimens distributed by site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of Samples Received in Good Condition.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number if pathology report received.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shipping from [free text: person or organization, address, phone number, email address.]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shipping to [free text: person or organization, address, phone number, email address.]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Trial identifier used by lead organization, e.g. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Trial Participant Identifier. Example: PT123.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Participant identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-1234.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identifies the treatment cohort to which the participant belongs. Example: Cohort A.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identifies the trial arm to which the participant belongs. Example: Arm A.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sample identifier assigned by the biorepository site. Example: EA123-45.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-12453.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Study related collection time point, as described in the protocol intake form. Example: Progression.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Assay and sample type used. Example: Green-top tube - Plasma (Olink).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The number corresponding to the batch sent for this assay.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Box identifier for samples, if sample shipment container includes multiple boxes for each sample/assay type.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assay run number for samples received.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Courier utilized for shipment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Air bill number assigned to shipment. Example: 4567788343.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Courier account number to pay for shipping if avaialable. Example: 45465732.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Type of shippment made.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Date of shipment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Count of specimens distributed by site.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Number of Samples Received in Good Condition.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Number if pathology report received.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shipping from [free text: person or organization, address, phone number, email address.]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shipping to [free text: person or organization, address, phone number, email address.]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Trial identifier used by lead organization, e.g. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Trial Participant Identifier. Example: PT123.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Participant identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-1234.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Identifies the treatment cohort to which the participant belongs. Example: Cohort A.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Identifies the trial arm to which the participant belongs. Example: Arm A.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sample identifier assigned by the biorepository site. Example: EA123-45.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-12453.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Study related collection time point, as described in the protocol intake form. Example: Progression.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>Date of blood collection.</t>
         </r>
       </text>
@@ -489,7 +489,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unit of each sample. Example: ml.</t>
+          <t>The unit of biological material from this sample.</t>
         </r>
       </text>
     </comment>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="75">
   <si>
     <t>#t</t>
   </si>
@@ -776,6 +776,9 @@
     <t>Assay-5</t>
   </si>
   <si>
+    <t>Green-top Tube - Plasma (Olink)</t>
+  </si>
+  <si>
     <t>USPS</t>
   </si>
   <si>
@@ -803,6 +806,9 @@
     <t>EDTA Tube</t>
   </si>
   <si>
+    <t>mL</t>
+  </si>
+  <si>
     <t>FFPE block #52</t>
   </si>
   <si>
@@ -833,10 +839,7 @@
     <t>CIMAC-14345</t>
   </si>
   <si>
-    <t>Green-top Tube - Plasma (Olink)</t>
-  </si>
-  <si>
-    <t>mL</t>
+    <t xml:space="preserve">Baseline </t>
   </si>
 </sst>
 </file>
@@ -947,11 +950,11 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1306,35 +1309,35 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1488,7 +1491,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1632,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1668,7 +1671,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1704,7 +1707,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1740,7 +1743,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1920,7 +1923,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1956,7 +1959,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1985,37 +1988,37 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -2128,29 +2131,29 @@
       <c r="H23">
         <v>12345</v>
       </c>
-      <c r="I23" s="4">
-        <v>0.42444444444444446</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="I23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23">
         <v>41193</v>
       </c>
-      <c r="K23" s="4">
-        <v>0.42444444444444446</v>
-      </c>
-      <c r="L23" s="5">
+      <c r="K23" s="6">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="L23">
         <v>41193</v>
       </c>
-      <c r="M23" s="4">
-        <v>0.42444444444444446</v>
+      <c r="M23" s="6">
+        <v>0.42430555555555555</v>
       </c>
       <c r="N23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q23">
         <v>100</v>
@@ -2159,16 +2162,16 @@
         <v>100</v>
       </c>
       <c r="S23" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="T23">
         <v>10</v>
       </c>
       <c r="U23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W23">
         <v>123</v>
@@ -2180,13 +2183,13 @@
         <v>100</v>
       </c>
       <c r="Z23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
@@ -2214,29 +2217,29 @@
       <c r="H24">
         <v>12345</v>
       </c>
-      <c r="I24" s="4">
-        <v>0.42444444444444446</v>
-      </c>
-      <c r="J24" s="5">
+      <c r="I24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24">
         <v>41193</v>
       </c>
-      <c r="K24" s="4">
-        <v>0.42444444444444446</v>
-      </c>
-      <c r="L24" s="5">
+      <c r="K24" s="6">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="L24">
         <v>41193</v>
       </c>
-      <c r="M24" s="4">
-        <v>0.42444444444444446</v>
+      <c r="M24" s="6">
+        <v>0.42430555555555555</v>
       </c>
       <c r="N24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q24">
         <v>100</v>
@@ -2245,16 +2248,16 @@
         <v>100</v>
       </c>
       <c r="S24" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="T24">
         <v>10</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="W24">
         <v>123</v>
@@ -2266,13 +2269,13 @@
         <v>100</v>
       </c>
       <c r="Z24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
@@ -2300,29 +2303,29 @@
       <c r="H25">
         <v>12345</v>
       </c>
-      <c r="I25" s="4">
-        <v>0.42444444444444446</v>
-      </c>
-      <c r="J25" s="5">
+      <c r="I25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25">
         <v>41193</v>
       </c>
-      <c r="K25" s="4">
-        <v>0.42444444444444446</v>
-      </c>
-      <c r="L25" s="5">
+      <c r="K25" s="6">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="L25">
         <v>41193</v>
       </c>
-      <c r="M25" s="4">
-        <v>0.42444444444444446</v>
+      <c r="M25" s="6">
+        <v>0.42430555555555555</v>
       </c>
       <c r="N25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q25">
         <v>100</v>
@@ -2331,16 +2334,16 @@
         <v>100</v>
       </c>
       <c r="S25" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="T25">
         <v>10</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="W25">
         <v>123</v>
@@ -2352,13 +2355,13 @@
         <v>100</v>
       </c>
       <c r="Z25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
@@ -2386,29 +2389,29 @@
       <c r="H26">
         <v>12345</v>
       </c>
-      <c r="I26" s="4">
-        <v>0.42444444444444446</v>
-      </c>
-      <c r="J26" s="5">
+      <c r="I26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26">
         <v>41193</v>
       </c>
-      <c r="K26" s="4">
-        <v>0.42444444444444446</v>
-      </c>
-      <c r="L26" s="5">
+      <c r="K26" s="6">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="L26">
         <v>41193</v>
       </c>
-      <c r="M26" s="4">
-        <v>0.42444444444444446</v>
+      <c r="M26" s="6">
+        <v>0.42430555555555555</v>
       </c>
       <c r="N26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q26">
         <v>100</v>
@@ -2417,16 +2420,16 @@
         <v>100</v>
       </c>
       <c r="S26" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="T26">
         <v>10</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="W26">
         <v>123</v>
@@ -2438,13 +2441,13 @@
         <v>100</v>
       </c>
       <c r="Z26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
@@ -2472,29 +2475,29 @@
       <c r="H27">
         <v>12345</v>
       </c>
-      <c r="I27" s="4">
-        <v>0.42444444444444446</v>
-      </c>
-      <c r="J27" s="5">
+      <c r="I27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27">
         <v>41193</v>
       </c>
-      <c r="K27" s="4">
-        <v>0.42444444444444446</v>
-      </c>
-      <c r="L27" s="5">
+      <c r="K27" s="6">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="L27">
         <v>41193</v>
       </c>
-      <c r="M27" s="4">
-        <v>0.42444444444444446</v>
+      <c r="M27" s="6">
+        <v>0.42430555555555555</v>
       </c>
       <c r="N27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27">
         <v>100</v>
@@ -2503,16 +2506,16 @@
         <v>100</v>
       </c>
       <c r="S27" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="T27">
         <v>10</v>
       </c>
       <c r="U27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W27">
         <v>123</v>
@@ -2524,13 +2527,13 @@
         <v>100</v>
       </c>
       <c r="Z27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
@@ -2558,29 +2561,29 @@
       <c r="H28">
         <v>12345</v>
       </c>
-      <c r="I28" s="4">
-        <v>0.42444444444444446</v>
-      </c>
-      <c r="J28" s="5">
+      <c r="I28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28">
         <v>41193</v>
       </c>
-      <c r="K28" s="4">
-        <v>0.42444444444444446</v>
-      </c>
-      <c r="L28" s="5">
+      <c r="K28" s="6">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="L28">
         <v>41193</v>
       </c>
-      <c r="M28" s="4">
-        <v>0.42444444444444446</v>
+      <c r="M28" s="6">
+        <v>0.42430555555555555</v>
       </c>
       <c r="N28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q28">
         <v>100</v>
@@ -2589,16 +2592,16 @@
         <v>100</v>
       </c>
       <c r="S28" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="T28">
         <v>10</v>
       </c>
       <c r="U28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W28">
         <v>123</v>
@@ -2610,13 +2613,13 @@
         <v>100</v>
       </c>
       <c r="Z28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
@@ -3595,23 +3598,23 @@
     <mergeCell ref="B21:U21"/>
     <mergeCell ref="V21:AB21"/>
   </mergeCells>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{E740EEFD-BA74-6847-9464-C02DCACF9945}">
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{FAF86F41-789D-FF4F-A4E4-DED13801A2D6}">
       <formula1>"Assay-1,Assay-2,Assay-3,Assay-4,Assay-5,Assay-6,Assay-7,Assay-8,Assay-9,Assay-10,Assay-11,Assay-12,Assay-13,Assay-14,Assay-15,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{CF43E531-8BC8-6A4D-A70A-F0BC18081BCC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{35853727-1BA7-F145-96A8-38CEB4C0A2C5}">
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{4C550642-C2DB-FC4B-AC4E-887CEC51F5F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{2BAEA675-58A6-5F44-9A6B-BEEB781A913B}">
       <formula1>"Frozen (Dry Ice),Frozen (Dry Shipper),Ambient (Ice Pack),Ambient,Other"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14" xr:uid="{50BA3003-5FF9-B345-9EF8-405B6D32D78A}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14" xr:uid="{42E30B1C-1072-C84B-B210-FFFEC57D35EB}">
       <formula1>AND(ISNUMBER(C14),LEFT(CELL("format",C14),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="L23:L222 J23:J222" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="J23:J222 L23:L222" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>AND(ISNUMBER(J23:J222),LEFT(CELL("format",J23:J222),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="M23:M222 K23:K222" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="K23:K222 M23:M222" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
@@ -3619,16 +3622,19 @@
       <formula1>"Core Needle Biopsy,Surgical Resection,Endoscopic Biopsy,Punch Biopsy,Plasma,PBMC,Whole Blood,Stool Sample,Bone Marrow Aspirate,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P23:P222" xr:uid="{00000000-0002-0000-0000-000009000000}">
-      <formula1>"FFPE Block,FFPE Scroll,FFPE Core Punch,Unstained Slide,Frozen Tissue,Sodium Heparin Green-Top Tube,Streck Tube,EDTA Tube,Archival FFPE Block,Archival FFPE Slides,Archival FFPE Core Punch,Archival FFPE Scroll,Other,Frozen Stool,DNA-Preserved Stool,Other"</formula1>
+      <formula1>"FFPE Block,FFPE Scroll,FFPE Core Punch,Unstained Slide,Frozen Tissue,Sodium Heparin Green-Top Tube,Streck Tube,EDTA Tube,Archival FFPE Block,Archival FFPE Slides,Archival FFPE Core Punch,Archival FFPE Scroll,Frozen Stool,DNA-Preserved Stool,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z23:Z222" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S23:S222" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+      <formula1>"µL,mL,mg,ng,Vials,Slides,Scrolls,Blocks,ng/µL,cells/ml,N/A,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z23:Z222" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"Usable for Assay,Not Usable for Assay,Verifying,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA23:AA222" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA23:AA222" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"Replacement Requested,Replacement Tested,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB23:AB222" xr:uid="{00000000-0002-0000-0000-00000C000000}">
-      <formula1>"Sample Returned,Sample Exhausted,Remainder used for other Assay,Other"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB23:AB222" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+      <formula1>"Sample Returned,Sample Exhausted,Remainder used for other Assay,Other,Sample Leftover"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
